--- a/speed-controller-parts-brainstorm.xlsx
+++ b/speed-controller-parts-brainstorm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://office365stanford-my.sharepoint.com/personal/jheath_stanford_edu/Documents/nonsense/sewing/4452-speed-controller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://office365stanford-my.sharepoint.com/personal/jheath_stanford_edu/Documents/nonsense/sewing/singer4452-speed-controller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="827" documentId="8_{CF98681D-D789-4D86-96CC-69D7BE0CF994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BFB9B38-BE6C-4F92-BAA2-9A1279D0E06A}"/>
+  <xr:revisionPtr revIDLastSave="866" documentId="8_{CF98681D-D789-4D86-96CC-69D7BE0CF994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFCD3FA8-EE73-3C41-BED4-37FD7CC7877C}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="1110" windowWidth="32760" windowHeight="18585" xr2:uid="{55063511-F0A8-42A5-8409-EFE34AF8E3D6}"/>
+    <workbookView xWindow="880" yWindow="1120" windowWidth="32760" windowHeight="18580" xr2:uid="{55063511-F0A8-42A5-8409-EFE34AF8E3D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="222">
   <si>
     <t>Part #</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>Digikey</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     <t>Enclosure Parts</t>
   </si>
   <si>
-    <t>https://www.printables.com/model/621920-tig-foot-pedal-diy-for-under-10</t>
-  </si>
-  <si>
     <t>91292A135</t>
   </si>
   <si>
@@ -694,6 +688,21 @@
   </si>
   <si>
     <t xml:space="preserve">Used as a gasket between split-clamp collar and sewing machine wheel. </t>
+  </si>
+  <si>
+    <t>Qnty</t>
+  </si>
+  <si>
+    <t>PDB181-K420K-203B</t>
+  </si>
+  <si>
+    <t>20k Ohm 1 Gang Linear Panel Mount Potentiometer 1.0 Turns Carbon 0.2W, 1/5W PC Pins</t>
+  </si>
+  <si>
+    <t>for foot pedal</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/bourns-inc/PDB181-K420K-203B/2564752?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=20243136172&amp;gbraid=0AAAAADrbLlgJwPnPv9IAg0cqR_t2sA3Jj&amp;gclid=Cj0KCQiAvtzLBhCPARIsALwhxdq9-WzQczFsIyGDbBIxYBP660tTgf6fjwSJiYsAiSVNhyEwrqvXSrcaAixYEALw_wcB</t>
   </si>
 </sst>
 </file>
@@ -774,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -787,7 +796,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -804,10 +812,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1129,20 +1133,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C6C5EF-C139-4DB8-9C18-69360E79681B}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
     <col min="2" max="2" width="83" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>217</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1165,1125 +1169,1126 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5">
-        <v>3.09</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="5">
-        <f>3*2.08</f>
-        <v>6.24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="5">
-        <v>12.24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="D8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9">
-        <f>12*1.67</f>
-        <v>20.04</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10">
-        <f>12*0.031</f>
-        <v>0.372</v>
-      </c>
-      <c r="D10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11">
-        <f>12*0.083</f>
-        <v>0.996</v>
-      </c>
-      <c r="D11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12">
-        <f>3*0.1</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="D12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13">
-        <f>3*0.1</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="D13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14">
-        <f>3*0.1</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="D14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15">
-        <v>0.3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16">
-        <f>3*0.1</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="D16" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17">
-        <f>3*0.1</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="D17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18">
-        <v>0.3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ref="C19:C20" si="0">3*0.1</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="D19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="D20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>147</v>
-      </c>
-      <c r="G20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>175</v>
-      </c>
-      <c r="B21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21">
-        <v>0.3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ref="C22:C23" si="1">3*0.1</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="D22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>180</v>
-      </c>
-      <c r="B23" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="D23" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>200</v>
-      </c>
-      <c r="B24" t="s">
-        <v>199</v>
-      </c>
-      <c r="C24">
-        <f>10*0.32</f>
-        <v>3.2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>204</v>
-      </c>
-      <c r="B25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25">
-        <v>0.49</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="5">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26">
-        <v>0.47</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="B40" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B28" t="s">
-        <v>192</v>
-      </c>
-      <c r="C28">
-        <f>6*0.3</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="D28" t="s">
-        <v>193</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G28" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B29" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29">
-        <f>3*1.39</f>
-        <v>4.17</v>
-      </c>
-      <c r="D29" t="s">
-        <v>183</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>184</v>
-      </c>
-      <c r="G29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>196</v>
-      </c>
-      <c r="B30" t="s">
-        <v>197</v>
-      </c>
-      <c r="C30">
-        <f>3*0.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C40" s="5">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" t="s">
         <v>212</v>
       </c>
-      <c r="B33" t="s">
+      <c r="G40" t="s">
         <v>211</v>
       </c>
-      <c r="C33" s="5">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="G33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G40" t="s">
+      <c r="B41" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" t="s">
-        <v>92</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E41" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="B42" t="s">
         <v>95</v>
-      </c>
-      <c r="B42" t="s">
-        <v>97</v>
       </c>
       <c r="C42">
         <v>11.46</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G42" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C43">
         <v>8.65</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G43" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" t="s">
-        <v>102</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G44" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="C45">
         <v>6.67</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C46">
         <v>19.21</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F46" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G46" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C48">
         <f>SUM(C39:C46)</f>
-        <v>45.99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64.98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52" s="5">
         <v>98.9</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" t="s">
-        <v>33</v>
       </c>
       <c r="C53" s="5">
         <v>17.47</v>
       </c>
       <c r="D53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="F53" t="s">
+        <v>107</v>
+      </c>
+      <c r="G53" t="s">
         <v>36</v>
       </c>
-      <c r="F53" t="s">
-        <v>109</v>
-      </c>
-      <c r="G53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C57">
+        <v>2.64</v>
+      </c>
+      <c r="D57" t="s">
         <v>42</v>
       </c>
-      <c r="C55">
-        <v>2.64</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
         <v>43</v>
       </c>
-      <c r="E55" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" t="s">
-        <v>44</v>
-      </c>
-      <c r="G55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" t="s">
         <v>50</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C58">
+        <v>1.31</v>
+      </c>
+      <c r="D58" t="s">
         <v>51</v>
       </c>
-      <c r="C57">
-        <v>1.31</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s">
         <v>52</v>
       </c>
-      <c r="E57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" t="s">
+    </row>
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59">
+        <v>3.31</v>
+      </c>
+      <c r="D59" t="s">
         <v>16</v>
       </c>
-      <c r="G57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="4" t="s">
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
         <v>60</v>
       </c>
-      <c r="C58">
-        <v>3.31</v>
-      </c>
-      <c r="D58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
         <v>74</v>
-      </c>
-      <c r="B60" t="s">
-        <v>75</v>
       </c>
       <c r="C60" s="5">
         <v>0.32</v>
       </c>
       <c r="D60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" t="s">
         <v>76</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="5">
         <v>0.76</v>
       </c>
       <c r="D61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="5" t="s">
+      <c r="G61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="B62" t="s">
         <v>80</v>
-      </c>
-      <c r="B62" t="s">
-        <v>81</v>
       </c>
       <c r="C62" s="5">
         <v>0.61</v>
       </c>
       <c r="D62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="5" t="s">
+      <c r="G62" t="s">
         <v>83</v>
       </c>
-      <c r="G62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C63">
         <v>2.4</v>
       </c>
       <c r="D63" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>115</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="B64" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64" t="s">
-        <v>118</v>
       </c>
       <c r="C64">
         <v>2.4</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" t="s">
-        <v>121</v>
       </c>
       <c r="C65">
         <v>1.25</v>
       </c>
       <c r="D65" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>122</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="B66" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>124</v>
-      </c>
-      <c r="B66" t="s">
-        <v>125</v>
       </c>
       <c r="C66">
         <f>12*1.07</f>
         <v>12.84</v>
       </c>
       <c r="D66" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" t="s">
+        <v>125</v>
+      </c>
+      <c r="G66" t="s">
         <v>126</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" t="s">
-        <v>127</v>
-      </c>
-      <c r="G66" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" t="s">
         <v>54</v>
-      </c>
-      <c r="B67" t="s">
-        <v>55</v>
       </c>
       <c r="C67" s="5">
         <v>0.49</v>
       </c>
       <c r="D67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" s="5" t="s">
+      <c r="G67" t="s">
         <v>57</v>
       </c>
-      <c r="G67" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="C68">
         <v>0.59</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2293,9 +2298,9 @@
     <hyperlink ref="G43" r:id="rId3" display="https://www.mcmaster.com/91287A264/" xr:uid="{19C2BF17-27EB-4E22-B80E-0C63CEC75758}"/>
     <hyperlink ref="G44" r:id="rId4" display="https://www.mcmaster.com/91828A251/" xr:uid="{C9D0A798-D251-4109-94EE-B6185DA4383D}"/>
     <hyperlink ref="G45" r:id="rId5" display="https://www.mcmaster.com/95211A160/" xr:uid="{8FBD35C9-F5A9-4915-9961-92782CE2FF82}"/>
-    <hyperlink ref="G13" r:id="rId6" xr:uid="{03EAF21A-DC7A-4DE6-A00D-2966852E1658}"/>
-    <hyperlink ref="G7" r:id="rId7" xr:uid="{CDAD9C82-015E-4C08-9938-172C16F564D1}"/>
-    <hyperlink ref="G6" r:id="rId8" xr:uid="{30D0255B-D5F6-4E14-8378-EAD8557DAEA0}"/>
+    <hyperlink ref="G11" r:id="rId6" xr:uid="{03EAF21A-DC7A-4DE6-A00D-2966852E1658}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{CDAD9C82-015E-4C08-9938-172C16F564D1}"/>
+    <hyperlink ref="G4" r:id="rId8" xr:uid="{30D0255B-D5F6-4E14-8378-EAD8557DAEA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -2310,34 +2315,34 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/speed-controller-parts-brainstorm.xlsx
+++ b/speed-controller-parts-brainstorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://office365stanford-my.sharepoint.com/personal/jheath_stanford_edu/Documents/nonsense/sewing/singer4452-speed-controller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="927" documentId="8_{CF98681D-D789-4D86-96CC-69D7BE0CF994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC815CBE-7CD5-458D-A50F-9BD26B9596FB}"/>
+  <xr:revisionPtr revIDLastSave="937" documentId="8_{CF98681D-D789-4D86-96CC-69D7BE0CF994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE5D9E57-54E9-449F-BEAC-FF1BEAD60983}"/>
   <bookViews>
-    <workbookView xWindow="18495" yWindow="1095" windowWidth="29760" windowHeight="19035" xr2:uid="{55063511-F0A8-42A5-8409-EFE34AF8E3D6}"/>
+    <workbookView xWindow="18840" yWindow="1440" windowWidth="29760" windowHeight="19035" xr2:uid="{55063511-F0A8-42A5-8409-EFE34AF8E3D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="116">
   <si>
     <t>MFG</t>
   </si>
@@ -370,13 +370,28 @@
   </si>
   <si>
     <t>Digikey #</t>
+  </si>
+  <si>
+    <t>Chassis Box - 1590XX, Diecast, 5.72" x 4.77" x 1.55"</t>
+  </si>
+  <si>
+    <t>Amplified Parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://www.amplifiedparts.com/products/chassis-box-1590xx-diecast-572-x-477-x-155</t>
+  </si>
+  <si>
+    <t>P-H1590XXCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +449,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -470,7 +491,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -813,7 +834,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +892,6 @@
       <c r="C4" s="10"/>
       <c r="D4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="11"/>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -883,12 +903,38 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>61</v>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7">
+        <v>12.59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">

--- a/speed-controller-parts-brainstorm.xlsx
+++ b/speed-controller-parts-brainstorm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://office365stanford-my.sharepoint.com/personal/jheath_stanford_edu/Documents/nonsense/sewing/singer4452-speed-controller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="937" documentId="8_{CF98681D-D789-4D86-96CC-69D7BE0CF994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE5D9E57-54E9-449F-BEAC-FF1BEAD60983}"/>
+  <xr:revisionPtr revIDLastSave="972" documentId="8_{CF98681D-D789-4D86-96CC-69D7BE0CF994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F461E10C-49DA-4048-8910-7399B64595E3}"/>
   <bookViews>
-    <workbookView xWindow="18840" yWindow="1440" windowWidth="29760" windowHeight="19035" xr2:uid="{55063511-F0A8-42A5-8409-EFE34AF8E3D6}"/>
+    <workbookView xWindow="10110" yWindow="1365" windowWidth="29760" windowHeight="19035" xr2:uid="{55063511-F0A8-42A5-8409-EFE34AF8E3D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
   <si>
     <t>MFG</t>
   </si>
@@ -222,72 +222,9 @@
     <t>Protects motor from transients, in parallel with motor, shorts on overvoltage</t>
   </si>
   <si>
-    <t>Enclosure Parts</t>
-  </si>
-  <si>
-    <t>91292A135</t>
-  </si>
-  <si>
-    <t>18-8 Stainless Steel Socket Head Screw, M6, 16mm long, pack of 50</t>
-  </si>
-  <si>
-    <t>Mcmaster Carr</t>
-  </si>
-  <si>
-    <t>18-8 Stainless Steel Socket Head Screw, M6 x 1 mm Thread, 16 mm Long | McMaster-Carr</t>
-  </si>
-  <si>
-    <t>9657K547</t>
-  </si>
-  <si>
-    <t>Compression Spring, 3" Long, 1.225" OD, 1.055" ID | McMaster-Carr</t>
-  </si>
-  <si>
-    <t>Compression Spring, 3" Long, 1.225" OD, 1.055" ID, Spring Steel, pack of 6</t>
-  </si>
-  <si>
-    <t>91287A264</t>
-  </si>
-  <si>
-    <t>18-8 Stainless Steel Hex Head Screw, M6 x 1mm Part Thread, 130mm Long, pack of 5</t>
-  </si>
-  <si>
-    <t>18-8 Stainless Steel Hex Head Screw, Made in The U.S., M6 x 1mm Part Thread, 130mm Long | McMaster-Carr</t>
-  </si>
-  <si>
-    <t>91828A251</t>
-  </si>
-  <si>
-    <t>Corrosion-Resistant 18-8 Stainless Steel Hex Nut, M6 x 1 mm Thread Size, pack of 100</t>
-  </si>
-  <si>
-    <t>Corrosion-Resistant 18-8 Stainless Steel Hex Nut, M6 x 1 mm Thread Size | McMaster-Carr</t>
-  </si>
-  <si>
-    <t>95211A160</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 316 Stainless Steel Oversized Washer for M6 Screw Size, 6.4 mm ID, 18.0 mm OD, Pack of 25</t>
-  </si>
-  <si>
-    <t>Super-Corrosion-Resistant 316 Stainless Steel Oversized Washer, for M6 Screw Size, 6.4 mm ID, 18.0 mm OD | McMaster-Carr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have some of these, so not ordering. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have similar screws, so not ordering for now. </t>
-  </si>
-  <si>
     <t xml:space="preserve">I need this for the power cord, at least. </t>
   </si>
   <si>
-    <t>Enclosure cost</t>
-  </si>
-  <si>
-    <t>Foot pedal alternative</t>
-  </si>
-  <si>
     <t>Archived parts</t>
   </si>
   <si>
@@ -339,30 +276,6 @@
     <t>https://www.digikey.com/en/products/detail/ween-semiconductors/BT136-600E-127/1155125</t>
   </si>
   <si>
-    <t>S6302RS Bearing 15x42x13mm 440C Stainless Steel S6302-2RS Stainless Steel Ball Bearings ABEC-3 Rubber Sealed Pick of 4PC</t>
-  </si>
-  <si>
-    <t>S6302-RS</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/product/B08FWNC43J/ref=ox_sc_act_title_1?smid=A8J4T7DYUXCDU&amp;psc=1</t>
-  </si>
-  <si>
-    <t>I only need one, had to get 4</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/5652N161/</t>
-  </si>
-  <si>
-    <t>5652N161</t>
-  </si>
-  <si>
-    <t>Fabric-Reinforced Multipurpose Neoprene Strip with Adhesive-Back, High-Strength, 2" x 36", 1/16" Thick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used as a gasket between split-clamp collar and sewing machine wheel. </t>
-  </si>
-  <si>
     <t>Qnty</t>
   </si>
   <si>
@@ -372,26 +285,20 @@
     <t>Digikey #</t>
   </si>
   <si>
-    <t>Chassis Box - 1590XX, Diecast, 5.72" x 4.77" x 1.55"</t>
-  </si>
-  <si>
-    <t>Amplified Parts</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>https://www.amplifiedparts.com/products/chassis-box-1590xx-diecast-572-x-477-x-155</t>
-  </si>
-  <si>
-    <t>P-H1590XXCE</t>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Unused parts</t>
+  </si>
+  <si>
+    <t>Potential foot pedal solution:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,18 +350,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -477,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -490,8 +385,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -831,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C6C5EF-C139-4DB8-9C18-69360E79681B}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,596 +735,399 @@
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="83" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="54.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="C6" s="7"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5">
+        <v>98.9</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="5">
+        <v>17.47</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7">
-        <v>12.59</v>
-      </c>
-      <c r="E7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="5">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>62</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>2.64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>1.31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>3.31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>63</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="D22">
+        <v>2.4</v>
+      </c>
+      <c r="F22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="G22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
         <v>66</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="D13">
-        <v>11.46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="D23">
+        <v>2.4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
         <v>69</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>70</v>
       </c>
-      <c r="D14">
-        <v>8.65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="C24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="D24">
+        <v>1.25</v>
+      </c>
+      <c r="F24" t="s">
         <v>72</v>
       </c>
-      <c r="C15" t="s">
+      <c r="G24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
         <v>73</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="8" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="C25" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16">
-        <v>6.67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17">
-        <v>19.21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19">
-        <f>SUM(D10:D17)</f>
-        <v>64.98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="5">
-        <v>98.9</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="5">
-        <v>17.47</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28">
-        <v>2.64</v>
-      </c>
-      <c r="E28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29">
-        <v>1.31</v>
-      </c>
-      <c r="E29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30">
-        <v>3.31</v>
-      </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0.32</v>
-      </c>
-      <c r="E31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0.76</v>
-      </c>
-      <c r="E32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="E33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34">
-        <v>2.4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35">
-        <v>2.4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36">
-        <v>1.25</v>
-      </c>
-      <c r="E36" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37">
+      <c r="D25">
         <f>12*1.07</f>
         <v>12.84</v>
       </c>
-      <c r="E37" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="5" t="s">
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G37" t="s">
-        <v>98</v>
-      </c>
-      <c r="H37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C26" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D26" s="5">
         <v>0.49</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F26" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D39">
+      <c r="D27">
         <v>0.59</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G27" t="s">
         <v>5</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H27" t="s">
         <v>29</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I27" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H12" r:id="rId1" display="https://www.mcmaster.com/91292A135/" xr:uid="{7334EC75-6342-445C-A96C-06808F2CD055}"/>
-    <hyperlink ref="H13" r:id="rId2" display="https://www.mcmaster.com/9657K547/" xr:uid="{CF716678-12FD-44AF-BCFB-45EC9E0D80D5}"/>
-    <hyperlink ref="H14" r:id="rId3" display="https://www.mcmaster.com/91287A264/" xr:uid="{19C2BF17-27EB-4E22-B80E-0C63CEC75758}"/>
-    <hyperlink ref="H15" r:id="rId4" display="https://www.mcmaster.com/91828A251/" xr:uid="{C9D0A798-D251-4109-94EE-B6185DA4383D}"/>
-    <hyperlink ref="H16" r:id="rId5" display="https://www.mcmaster.com/95211A160/" xr:uid="{8FBD35C9-F5A9-4915-9961-92782CE2FF82}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/speed-controller-parts-brainstorm.xlsx
+++ b/speed-controller-parts-brainstorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://office365stanford-my.sharepoint.com/personal/jheath_stanford_edu/Documents/nonsense/sewing/singer4452-speed-controller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="972" documentId="8_{CF98681D-D789-4D86-96CC-69D7BE0CF994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F461E10C-49DA-4048-8910-7399B64595E3}"/>
+  <xr:revisionPtr revIDLastSave="994" documentId="8_{CF98681D-D789-4D86-96CC-69D7BE0CF994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2771B9F-547E-406E-B254-E15119571F8D}"/>
   <bookViews>
-    <workbookView xWindow="10110" yWindow="1365" windowWidth="29760" windowHeight="19035" xr2:uid="{55063511-F0A8-42A5-8409-EFE34AF8E3D6}"/>
+    <workbookView xWindow="16080" yWindow="1935" windowWidth="29760" windowHeight="19035" xr2:uid="{55063511-F0A8-42A5-8409-EFE34AF8E3D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
   <si>
     <t>MFG</t>
   </si>
@@ -282,9 +282,6 @@
     <t>MFG #</t>
   </si>
   <si>
-    <t>Digikey #</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -292,6 +289,42 @@
   </si>
   <si>
     <t>Potential foot pedal solution:</t>
+  </si>
+  <si>
+    <t>1287-ST</t>
+  </si>
+  <si>
+    <t>(534-1287-ST)</t>
+  </si>
+  <si>
+    <t>Digikey # (Mouser)</t>
+  </si>
+  <si>
+    <t>Terminals PCB STURDI-MNT TERM</t>
+  </si>
+  <si>
+    <t>Keystone Electronics</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Keystone-Electronics/1287-ST?qs=lQmX4aIt5iBQmFQ9gmrtHw%3D%3D</t>
+  </si>
+  <si>
+    <t>42100-2 (CUT STRIP)</t>
+  </si>
+  <si>
+    <t>(571-421002-CT)</t>
+  </si>
+  <si>
+    <t>Terminals .25 FF REC IS 18-14 Cut Strip of 100</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/TE-Connectivity-AMP/42100-2-CUT-STRIP?qs=2FIyTMJ0hNlByrnrD71s6A%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -372,7 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -385,6 +418,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -727,7 +763,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,13 +781,13 @@
         <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
         <v>79</v>
@@ -773,16 +809,53 @@
       <c r="A2" s="7"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="I4" s="8"/>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -798,7 +871,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -849,7 +922,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">

--- a/speed-controller-parts-brainstorm.xlsx
+++ b/speed-controller-parts-brainstorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://office365stanford-my.sharepoint.com/personal/jheath_stanford_edu/Documents/nonsense/sewing/singer4452-speed-controller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="994" documentId="8_{CF98681D-D789-4D86-96CC-69D7BE0CF994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2771B9F-547E-406E-B254-E15119571F8D}"/>
+  <xr:revisionPtr revIDLastSave="999" documentId="8_{CF98681D-D789-4D86-96CC-69D7BE0CF994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D047919-799D-40F5-9AE1-FDBA8C275FA6}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="1935" windowWidth="29760" windowHeight="19035" xr2:uid="{55063511-F0A8-42A5-8409-EFE34AF8E3D6}"/>
+    <workbookView xWindow="15375" yWindow="1845" windowWidth="29760" windowHeight="19035" xr2:uid="{55063511-F0A8-42A5-8409-EFE34AF8E3D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -331,7 +331,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,12 +377,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -405,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -417,7 +411,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -763,7 +756,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +806,7 @@
       <c r="A3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C3" t="s">
@@ -856,15 +849,73 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="C6" s="7"/>
-      <c r="I6" s="8"/>
+      <c r="A5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" s="5"/>
@@ -997,75 +1048,6 @@
       </c>
       <c r="I18" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0.32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0.76</v>
-      </c>
-      <c r="F20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
